--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
@@ -540,10 +540,10 @@
         <v>5.264918</v>
       </c>
       <c r="I2">
-        <v>0.5110994274238188</v>
+        <v>0.6142318033764959</v>
       </c>
       <c r="J2">
-        <v>0.5110994274238188</v>
+        <v>0.6142318033764957</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N2">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O2">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P2">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q2">
-        <v>15.742189058688</v>
+        <v>0.1940157382453333</v>
       </c>
       <c r="R2">
-        <v>141.679701528192</v>
+        <v>1.746141644208</v>
       </c>
       <c r="S2">
-        <v>0.2489610200892563</v>
+        <v>0.00691778299350241</v>
       </c>
       <c r="T2">
-        <v>0.2489610200892563</v>
+        <v>0.00691778299350241</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>5.264918</v>
       </c>
       <c r="I3">
-        <v>0.5110994274238188</v>
+        <v>0.6142318033764959</v>
       </c>
       <c r="J3">
-        <v>0.5110994274238188</v>
+        <v>0.6142318033764957</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q3">
         <v>15.81593769006844</v>
@@ -632,10 +632,10 @@
         <v>142.343439210616</v>
       </c>
       <c r="S3">
-        <v>0.2501273467310094</v>
+        <v>0.5639296366787447</v>
       </c>
       <c r="T3">
-        <v>0.2501273467310094</v>
+        <v>0.5639296366787447</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>5.264918</v>
       </c>
       <c r="I4">
-        <v>0.5110994274238188</v>
+        <v>0.6142318033764959</v>
       </c>
       <c r="J4">
-        <v>0.5110994274238188</v>
+        <v>0.6142318033764957</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N4">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q4">
-        <v>0.7594778762904444</v>
+        <v>1.216755894280666</v>
       </c>
       <c r="R4">
-        <v>6.835300886614</v>
+        <v>10.950803048526</v>
       </c>
       <c r="S4">
-        <v>0.01201106060355303</v>
+        <v>0.04338438370424865</v>
       </c>
       <c r="T4">
-        <v>0.01201106060355303</v>
+        <v>0.04338438370424865</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.678748</v>
+        <v>1.102210333333334</v>
       </c>
       <c r="H5">
-        <v>5.036244</v>
+        <v>3.306631</v>
       </c>
       <c r="I5">
-        <v>0.4889005725761812</v>
+        <v>0.3857681966235041</v>
       </c>
       <c r="J5">
-        <v>0.4889005725761812</v>
+        <v>0.3857681966235041</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N5">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O5">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P5">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q5">
-        <v>15.058450139904</v>
+        <v>0.1218515567706667</v>
       </c>
       <c r="R5">
-        <v>135.526051259136</v>
+        <v>1.096664010936</v>
       </c>
       <c r="S5">
-        <v>0.2381477629202196</v>
+        <v>0.004344712623746062</v>
       </c>
       <c r="T5">
-        <v>0.2381477629202196</v>
+        <v>0.004344712623746062</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.678748</v>
+        <v>1.102210333333334</v>
       </c>
       <c r="H6">
-        <v>5.036244</v>
+        <v>3.306631</v>
       </c>
       <c r="I6">
-        <v>0.4889005725761812</v>
+        <v>0.3857681966235041</v>
       </c>
       <c r="J6">
-        <v>0.4889005725761812</v>
+        <v>0.3857681966235041</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q6">
-        <v>15.12899560752533</v>
+        <v>9.933197413530223</v>
       </c>
       <c r="R6">
-        <v>136.160960467728</v>
+        <v>89.39877672177201</v>
       </c>
       <c r="S6">
-        <v>0.2392634318730065</v>
+        <v>0.3541759279936886</v>
       </c>
       <c r="T6">
-        <v>0.2392634318730066</v>
+        <v>0.3541759279936885</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.678748</v>
+        <v>1.102210333333334</v>
       </c>
       <c r="H7">
-        <v>5.036244</v>
+        <v>3.306631</v>
       </c>
       <c r="I7">
-        <v>0.4889005725761812</v>
+        <v>0.3857681966235041</v>
       </c>
       <c r="J7">
-        <v>0.4889005725761812</v>
+        <v>0.3857681966235041</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N7">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q7">
-        <v>0.7264910674013333</v>
+        <v>0.7641833660963333</v>
       </c>
       <c r="R7">
-        <v>6.538419606612</v>
+        <v>6.877650294867</v>
       </c>
       <c r="S7">
-        <v>0.01148937778295509</v>
+        <v>0.02724755600606951</v>
       </c>
       <c r="T7">
-        <v>0.01148937778295509</v>
+        <v>0.02724755600606951</v>
       </c>
     </row>
   </sheetData>
